--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2284796.616898603</v>
+        <v>-2285508.881652348</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058547</v>
       </c>
     </row>
     <row r="9">
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.1776483877525582</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,67 +1209,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.516869431124803</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>3.097658594934726</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3.516869431124803</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.516869431124803</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4860450762373</v>
+        <v>172.8636031342217</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8802695799879</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.87039510700843</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294975</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y11" t="n">
-        <v>106.0102135894409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.376387674824855</v>
+        <v>9.37638767482494</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>83.99906053735353</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>56.10889528600642</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44964351050413</v>
+        <v>13.44964351050422</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82929343736541</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="U12" t="n">
-        <v>59.08630782930755</v>
+        <v>59.08630782930764</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50715706586118</v>
+        <v>62.50715706586126</v>
       </c>
       <c r="W12" t="n">
-        <v>88.56281972747053</v>
+        <v>88.56281972747061</v>
       </c>
       <c r="X12" t="n">
-        <v>188.4860450762373</v>
+        <v>39.17115058992962</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.24252228448455</v>
+        <v>45.24252228448464</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.2894475238664</v>
+        <v>25.28944752386649</v>
       </c>
       <c r="S13" t="n">
-        <v>57.29676508345541</v>
+        <v>57.2967650834555</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61991340433097</v>
+        <v>45.61991340433105</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5147946356656</v>
+        <v>110.5147946356657</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96725133490884</v>
+        <v>66.96725133490892</v>
       </c>
       <c r="W13" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77769155870146</v>
+        <v>43.77769155870155</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99950896462735</v>
+        <v>38.99950896462744</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>172.8636031342218</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0637335316378</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>188.4860450762373</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.87039510700846</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.74367530294978</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.32438889692367</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00878260204226</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7546999762259</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.22492323883682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.376387674824883</v>
+        <v>9.37638767482494</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>41.3285521378693</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>53.76703813344159</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44964351050416</v>
+        <v>13.44964351050422</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82929343736544</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="U15" t="n">
-        <v>59.08630782930758</v>
+        <v>59.08630782930764</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50715706586121</v>
+        <v>62.50715706586126</v>
       </c>
       <c r="W15" t="n">
-        <v>88.56281972747055</v>
+        <v>88.56281972747061</v>
       </c>
       <c r="X15" t="n">
-        <v>39.17115058992957</v>
+        <v>39.17115058992962</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.24252228448458</v>
+        <v>45.24252228448464</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28944752386643</v>
+        <v>25.28944752386649</v>
       </c>
       <c r="S16" t="n">
-        <v>57.29676508345544</v>
+        <v>57.2967650834555</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61991340433099</v>
+        <v>45.61991340433105</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5147946356656</v>
+        <v>110.5147946356657</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96725133490887</v>
+        <v>66.96725133490892</v>
       </c>
       <c r="W16" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77769155870149</v>
+        <v>43.77769155870155</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99950896462738</v>
+        <v>38.99950896462744</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63531193256523</v>
+        <v>76.63531193256517</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75356893591072</v>
+        <v>52.75356893591066</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32023119695918</v>
+        <v>40.32023119695913</v>
       </c>
       <c r="E17" t="n">
-        <v>74.02698361636783</v>
+        <v>74.026983616368</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7473211947454</v>
+        <v>105.7473211947453</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3863065040499</v>
+        <v>121.3863065040498</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426084</v>
+        <v>49.57010498426079</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.42785516388392</v>
+        <v>23.42785516388386</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44453538049879</v>
+        <v>40.44453538049873</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33078584943803</v>
+        <v>62.33078584943797</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83363897318179</v>
+        <v>84.83363897318173</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7358448975026</v>
+        <v>36.15850974583338</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1965,25 +1965,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S18" t="n">
         <v>188.4860450762373</v>
       </c>
       <c r="T18" t="n">
-        <v>52.01821428421865</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63531193256517</v>
+        <v>76.63531193256523</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75356893591066</v>
+        <v>52.75356893591077</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32023119695913</v>
+        <v>40.32023119695918</v>
       </c>
       <c r="E20" t="n">
-        <v>74.026983616368</v>
+        <v>74.02698361636806</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7473211947453</v>
+        <v>105.7473211947454</v>
       </c>
       <c r="G20" t="n">
-        <v>121.3863065040498</v>
+        <v>121.3863065040499</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57010498426081</v>
+        <v>49.57010498426087</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.42785516388386</v>
+        <v>23.42785516388392</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44453538049873</v>
+        <v>40.44453538049879</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33078584943797</v>
+        <v>62.33078584943803</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83363897318173</v>
+        <v>84.83363897318179</v>
       </c>
     </row>
     <row r="21">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
+        <v>178.7219527335926</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>188.4860450762373</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>188.4860450762373</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>188.4860450762373</v>
-      </c>
-      <c r="X21" t="n">
-        <v>166.0185085031497</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>188.4860450762373</v>
       </c>
       <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>7.195069383221376</v>
+      </c>
+      <c r="Y24" t="n">
         <v>188.4860450762373</v>
-      </c>
-      <c r="X24" t="n">
-        <v>188.4860450762373</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>166.0185085031497</v>
       </c>
     </row>
     <row r="25">
@@ -2558,13 +2558,13 @@
         <v>136.7174680290498</v>
       </c>
       <c r="D26" t="n">
-        <v>124.2841302900982</v>
+        <v>124.2841302900983</v>
       </c>
       <c r="E26" t="n">
         <v>157.9908827095071</v>
       </c>
       <c r="F26" t="n">
-        <v>189.7112202878844</v>
+        <v>189.7112202878845</v>
       </c>
       <c r="G26" t="n">
         <v>205.3502055971889</v>
@@ -2573,7 +2573,7 @@
         <v>133.5340040773999</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52412960442044</v>
+        <v>27.52412960442047</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754891</v>
+        <v>14.03037772754894</v>
       </c>
       <c r="T26" t="n">
-        <v>8.978123394335663</v>
+        <v>8.978123394335682</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945426</v>
+        <v>36.66251709945428</v>
       </c>
       <c r="V26" t="n">
         <v>107.391754257023</v>
       </c>
       <c r="W26" t="n">
-        <v>124.4084344736378</v>
+        <v>124.4084344736379</v>
       </c>
       <c r="X26" t="n">
         <v>146.2946849425771</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.7975380663208</v>
+        <v>168.7975380663209</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15.77307523683774</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.483027934777424</v>
+        <v>204.7742546959809</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74004232671956</v>
+        <v>23.74004232671959</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21655422488257</v>
       </c>
       <c r="X27" t="n">
-        <v>3.824885087341556</v>
+        <v>3.824885087341585</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.896256781896568</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95049958086743</v>
+        <v>21.95049958086746</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27364790174298</v>
+        <v>10.27364790174301</v>
       </c>
       <c r="U28" t="n">
-        <v>75.16852913307761</v>
+        <v>75.16852913307764</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232086</v>
+        <v>31.62098583232088</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720628</v>
+        <v>76.82267773720631</v>
       </c>
       <c r="X28" t="n">
-        <v>8.43142605611348</v>
+        <v>8.431426056113509</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.65324346203937</v>
+        <v>3.653243462039399</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.5992110257042</v>
+        <v>160.5992110257043</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7174680290497</v>
+        <v>136.7174680290498</v>
       </c>
       <c r="D29" t="n">
-        <v>124.2841302900982</v>
+        <v>124.2841302900983</v>
       </c>
       <c r="E29" t="n">
         <v>157.9908827095071</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7112202878844</v>
+        <v>189.7112202878845</v>
       </c>
       <c r="G29" t="n">
         <v>205.3502055971889</v>
@@ -2810,7 +2810,7 @@
         <v>133.5340040773999</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52412960442042</v>
+        <v>27.52412960442047</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03037772754888</v>
+        <v>14.03037772754894</v>
       </c>
       <c r="T29" t="n">
-        <v>8.978123394335634</v>
+        <v>8.978123394335691</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66251709945422</v>
+        <v>36.66251709945428</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3917542570229</v>
+        <v>107.391754257023</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4084344736378</v>
+        <v>124.4084344736379</v>
       </c>
       <c r="X29" t="n">
-        <v>146.294684942577</v>
+        <v>146.2946849425771</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.7975380663208</v>
+        <v>168.7975380663209</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>80.85644663908815</v>
       </c>
       <c r="T30" t="n">
-        <v>1.483027934777395</v>
+        <v>1.483027934777452</v>
       </c>
       <c r="U30" t="n">
-        <v>55.20369724812367</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16089156327317</v>
+        <v>27.16089156327322</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21655422488257</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>3.824885087341585</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.89625678189654</v>
+        <v>9.896256781896597</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.9504995808674</v>
+        <v>21.95049958086746</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27364790174296</v>
+        <v>10.27364790174301</v>
       </c>
       <c r="U31" t="n">
-        <v>75.16852913307758</v>
+        <v>75.16852913307764</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62098583232083</v>
+        <v>31.62098583232088</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82267773720625</v>
+        <v>76.82267773720631</v>
       </c>
       <c r="X31" t="n">
-        <v>8.431426056113452</v>
+        <v>8.431426056113509</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.653243462039342</v>
+        <v>3.653243462039399</v>
       </c>
     </row>
     <row r="32">
@@ -3032,13 +3032,13 @@
         <v>135.8075835698292</v>
       </c>
       <c r="D32" t="n">
-        <v>123.3742458308777</v>
+        <v>123.3742458308776</v>
       </c>
       <c r="E32" t="n">
         <v>157.0809982502865</v>
       </c>
       <c r="F32" t="n">
-        <v>188.8013358286639</v>
+        <v>188.8013358286638</v>
       </c>
       <c r="G32" t="n">
         <v>204.4403211379683</v>
@@ -3047,7 +3047,7 @@
         <v>132.6241196181793</v>
       </c>
       <c r="I32" t="n">
-        <v>26.61424514519987</v>
+        <v>26.61424514519985</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.12049326832835</v>
+        <v>13.12049326832832</v>
       </c>
       <c r="T32" t="n">
-        <v>8.06823893511509</v>
+        <v>8.068238935115062</v>
       </c>
       <c r="U32" t="n">
-        <v>35.75263264023368</v>
+        <v>35.75263264023366</v>
       </c>
       <c r="V32" t="n">
         <v>106.4818697978024</v>
       </c>
       <c r="W32" t="n">
-        <v>123.4985500144173</v>
+        <v>123.4985500144172</v>
       </c>
       <c r="X32" t="n">
         <v>145.3848004833565</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.8876536071003</v>
+        <v>167.8876536071002</v>
       </c>
     </row>
     <row r="33">
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>52.9867766517246</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>47.75844952150715</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9710572869065</v>
+        <v>0.5731434755568318</v>
       </c>
       <c r="U33" t="n">
-        <v>22.830157867499</v>
+        <v>22.83015786749897</v>
       </c>
       <c r="V33" t="n">
-        <v>26.25100710405263</v>
+        <v>26.2510071040526</v>
       </c>
       <c r="W33" t="n">
-        <v>52.30666976566198</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>2.915000628120993</v>
+        <v>2.915000628120964</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>8.986372322675976</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.04061512164687</v>
+        <v>21.04061512164684</v>
       </c>
       <c r="T34" t="n">
-        <v>9.363763442522421</v>
+        <v>9.363763442522393</v>
       </c>
       <c r="U34" t="n">
-        <v>74.25864467385705</v>
+        <v>74.25864467385702</v>
       </c>
       <c r="V34" t="n">
-        <v>30.71110137310029</v>
+        <v>30.71110137310026</v>
       </c>
       <c r="W34" t="n">
-        <v>75.91279327798571</v>
+        <v>75.91279327798568</v>
       </c>
       <c r="X34" t="n">
-        <v>7.521541596892916</v>
+        <v>7.521541596892888</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.743359002818806</v>
+        <v>2.743359002818778</v>
       </c>
     </row>
     <row r="35">
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.718948055398569</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3387,22 +3387,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.873689458423158</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>151.6078430796239</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>146.7791605148161</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96295899502711</v>
+        <v>74.96295899502712</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27.52769589054125</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>148.7916435265678</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>109.1933384246293</v>
       </c>
       <c r="D41" t="n">
-        <v>96.7600006856778</v>
+        <v>96.76000068567777</v>
       </c>
       <c r="E41" t="n">
-        <v>130.4667531050867</v>
+        <v>130.4667531050866</v>
       </c>
       <c r="F41" t="n">
         <v>162.187090683464</v>
@@ -3755,7 +3755,7 @@
         <v>177.8260759927685</v>
       </c>
       <c r="H41" t="n">
-        <v>106.0098744729795</v>
+        <v>106.0098744729794</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.138387495033818</v>
+        <v>9.13838749503379</v>
       </c>
       <c r="V41" t="n">
-        <v>79.86762465260253</v>
+        <v>79.8676246526025</v>
       </c>
       <c r="W41" t="n">
-        <v>96.8843048692174</v>
+        <v>96.88430486921737</v>
       </c>
       <c r="X41" t="n">
         <v>118.7705553381566</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>68.9057937308266</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69242462046211</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>71.71726220435113</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64439952865717</v>
+        <v>47.64439952865714</v>
       </c>
       <c r="V43" t="n">
-        <v>4.096856227900417</v>
+        <v>4.096856227900389</v>
       </c>
       <c r="W43" t="n">
-        <v>49.29854813278584</v>
+        <v>49.29854813278581</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>109.1933384246293</v>
       </c>
       <c r="D44" t="n">
-        <v>96.7600006856778</v>
+        <v>96.76000068567777</v>
       </c>
       <c r="E44" t="n">
-        <v>130.4667531050867</v>
+        <v>130.4667531050866</v>
       </c>
       <c r="F44" t="n">
         <v>162.187090683464</v>
@@ -3992,7 +3992,7 @@
         <v>177.8260759927685</v>
       </c>
       <c r="H44" t="n">
-        <v>106.0098744729795</v>
+        <v>106.0098744729794</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.138387495033818</v>
+        <v>9.13838749503379</v>
       </c>
       <c r="V44" t="n">
-        <v>79.86762465260253</v>
+        <v>79.8676246526025</v>
       </c>
       <c r="W44" t="n">
-        <v>96.8843048692174</v>
+        <v>96.88430486921737</v>
       </c>
       <c r="X44" t="n">
         <v>118.7705553381566</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>68.27190435441743</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>91.16280812276879</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69242462046208</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64439952865717</v>
+        <v>47.64439952865714</v>
       </c>
       <c r="V46" t="n">
-        <v>4.096856227900417</v>
+        <v>4.096856227900389</v>
       </c>
       <c r="W46" t="n">
-        <v>49.29854813278584</v>
+        <v>49.29854813278581</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4823,28 +4823,28 @@
         <v>7.244751028117094</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="R8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="S8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="T8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="U8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="V8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="W8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="X8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="Y8" t="n">
         <v>7.065308212205419</v>
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.962690994954155</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="C9" t="n">
-        <v>6.962690994954155</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="D9" t="n">
         <v>3.833742919262513</v>
@@ -4869,13 +4869,13 @@
         <v>3.833742919262513</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="I9" t="n">
         <v>0.2813495544899843</v>
@@ -4887,13 +4887,13 @@
         <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>6.937899146382215</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="M9" t="n">
-        <v>10.41959988319577</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="N9" t="n">
-        <v>10.41959988319577</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="O9" t="n">
         <v>10.58577698768566</v>
@@ -4905,28 +4905,28 @@
         <v>14.06747772449921</v>
       </c>
       <c r="R9" t="n">
-        <v>10.51508435972668</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="S9" t="n">
-        <v>6.962690994954155</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="T9" t="n">
-        <v>6.962690994954155</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="U9" t="n">
-        <v>6.962690994954155</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="V9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="W9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="X9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
     </row>
     <row r="10">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>439.5604086194663</v>
+        <v>380.0785282631283</v>
       </c>
       <c r="C11" t="n">
-        <v>439.5604086194663</v>
+        <v>380.0785282631283</v>
       </c>
       <c r="D11" t="n">
-        <v>439.5604086194663</v>
+        <v>380.0785282631283</v>
       </c>
       <c r="E11" t="n">
-        <v>439.5604086194663</v>
+        <v>380.0785282631283</v>
       </c>
       <c r="F11" t="n">
-        <v>439.5604086194663</v>
+        <v>189.6885837416765</v>
       </c>
       <c r="G11" t="n">
-        <v>249.1704640980145</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H11" t="n">
-        <v>78.5843332091378</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I11" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="J11" t="n">
-        <v>15.07888360609898</v>
+        <v>115.4202186115222</v>
       </c>
       <c r="K11" t="n">
-        <v>184.7715035048724</v>
+        <v>115.4202186115222</v>
       </c>
       <c r="L11" t="n">
-        <v>371.3726881303473</v>
+        <v>162.1313769505586</v>
       </c>
       <c r="M11" t="n">
-        <v>452.2238117436926</v>
+        <v>348.7325615760335</v>
       </c>
       <c r="N11" t="n">
-        <v>558.3234162676418</v>
+        <v>424.0495048796956</v>
       </c>
       <c r="O11" t="n">
-        <v>592.5337113444241</v>
+        <v>610.6506895051705</v>
       </c>
       <c r="P11" t="n">
         <v>753.9441803049491</v>
@@ -5063,28 +5063,28 @@
         <v>753.9441803049491</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0313769686362</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0313769686362</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="T11" t="n">
-        <v>737.0313769686362</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="U11" t="n">
-        <v>737.0313769686362</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="V11" t="n">
-        <v>737.0313769686362</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="W11" t="n">
-        <v>737.0313769686362</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="X11" t="n">
-        <v>737.0313769686362</v>
+        <v>570.4684727845803</v>
       </c>
       <c r="Y11" t="n">
-        <v>629.9503531409181</v>
+        <v>570.4684727845803</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>254.7888379501707</v>
+        <v>109.397518163855</v>
       </c>
       <c r="C12" t="n">
-        <v>245.3177392887314</v>
+        <v>99.92641950241568</v>
       </c>
       <c r="D12" t="n">
-        <v>245.3177392887314</v>
+        <v>99.92641950241568</v>
       </c>
       <c r="E12" t="n">
-        <v>71.75453541014588</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F12" t="n">
-        <v>71.75453541014588</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G12" t="n">
-        <v>71.75453541014588</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H12" t="n">
         <v>15.07888360609898</v>
@@ -5139,31 +5139,31 @@
         <v>753.9441803049491</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.9441803049491</v>
+        <v>747.0010596398752</v>
       </c>
       <c r="R12" t="n">
-        <v>753.9441803049491</v>
+        <v>610.9183727939513</v>
       </c>
       <c r="S12" t="n">
-        <v>740.3586818094903</v>
+        <v>597.3328742984925</v>
       </c>
       <c r="T12" t="n">
-        <v>703.157375307101</v>
+        <v>406.9429297770407</v>
       </c>
       <c r="U12" t="n">
-        <v>643.4742360855782</v>
+        <v>347.2597905555178</v>
       </c>
       <c r="V12" t="n">
-        <v>580.3356935948094</v>
+        <v>284.1212480647488</v>
       </c>
       <c r="W12" t="n">
-        <v>490.8782999306978</v>
+        <v>194.6638544006371</v>
       </c>
       <c r="X12" t="n">
-        <v>300.488355409246</v>
+        <v>155.0970356229304</v>
       </c>
       <c r="Y12" t="n">
-        <v>254.7888379501707</v>
+        <v>109.397518163855</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.59847835882622</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C13" t="n">
-        <v>27.16621540761925</v>
+        <v>26.64662065489193</v>
       </c>
       <c r="D13" t="n">
-        <v>27.16621540761925</v>
+        <v>59.27614311773389</v>
       </c>
       <c r="E13" t="n">
-        <v>27.16621540761925</v>
+        <v>59.27614311773389</v>
       </c>
       <c r="F13" t="n">
-        <v>27.16621540761925</v>
+        <v>59.27614311773389</v>
       </c>
       <c r="G13" t="n">
-        <v>27.16621540761925</v>
+        <v>59.27614311773389</v>
       </c>
       <c r="H13" t="n">
-        <v>39.36016320017853</v>
+        <v>59.27614311773389</v>
       </c>
       <c r="I13" t="n">
-        <v>39.36016320017853</v>
+        <v>59.27614311773389</v>
       </c>
       <c r="J13" t="n">
-        <v>96.68135174276399</v>
+        <v>59.27614311773389</v>
       </c>
       <c r="K13" t="n">
-        <v>96.68135174276399</v>
+        <v>118.5285917637476</v>
       </c>
       <c r="L13" t="n">
-        <v>241.2073073487331</v>
+        <v>263.0545473697166</v>
       </c>
       <c r="M13" t="n">
-        <v>392.5986418270022</v>
+        <v>263.0545473697166</v>
       </c>
       <c r="N13" t="n">
-        <v>520.7701116317054</v>
+        <v>263.0545473697166</v>
       </c>
       <c r="O13" t="n">
-        <v>520.7701116317054</v>
+        <v>402.3069076016771</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7701116317054</v>
+        <v>520.770111631706</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7701116317054</v>
+        <v>520.770111631706</v>
       </c>
       <c r="R13" t="n">
-        <v>495.2252151429514</v>
+        <v>495.225215142952</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3496948566328</v>
+        <v>437.3496948566333</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2689742461975</v>
+        <v>391.2689742461979</v>
       </c>
       <c r="U13" t="n">
-        <v>279.637868553606</v>
+        <v>279.6378685536063</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9941803365263</v>
+        <v>211.9941803365266</v>
       </c>
       <c r="W13" t="n">
-        <v>98.69221746804729</v>
+        <v>98.69221746804746</v>
       </c>
       <c r="X13" t="n">
-        <v>54.47232700471248</v>
+        <v>54.47232700471256</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07888360609898</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>442.7760287726477</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="C14" t="n">
-        <v>268.9742777305896</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="D14" t="n">
-        <v>268.9742777305896</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="E14" t="n">
-        <v>268.9742777305896</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="F14" t="n">
-        <v>78.58433320913782</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="G14" t="n">
-        <v>78.58433320913782</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H14" t="n">
-        <v>78.58433320913782</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I14" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="J14" t="n">
-        <v>15.07888360609898</v>
+        <v>115.4202186115222</v>
       </c>
       <c r="K14" t="n">
-        <v>15.07888360609898</v>
+        <v>115.4202186115222</v>
       </c>
       <c r="L14" t="n">
-        <v>61.7900419451354</v>
+        <v>162.1313769505586</v>
       </c>
       <c r="M14" t="n">
-        <v>142.6411655584807</v>
+        <v>242.982500563904</v>
       </c>
       <c r="N14" t="n">
-        <v>329.2423501839556</v>
+        <v>405.9325267189493</v>
       </c>
       <c r="O14" t="n">
-        <v>515.8435348094306</v>
+        <v>592.5337113444242</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4050806852708</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="Q14" t="n">
         <v>753.9441803049491</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0313769686362</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="S14" t="n">
-        <v>737.0313769686362</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="T14" t="n">
-        <v>692.2592669717435</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="U14" t="n">
-        <v>619.5231229292766</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="V14" t="n">
-        <v>619.5231229292766</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="W14" t="n">
-        <v>458.1547391149071</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="X14" t="n">
-        <v>458.1547391149071</v>
+        <v>570.4684727845802</v>
       </c>
       <c r="Y14" t="n">
-        <v>442.7760287726477</v>
+        <v>570.4684727845802</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>227.0761107669805</v>
+        <v>198.1131861461238</v>
       </c>
       <c r="C15" t="n">
-        <v>217.6050121055413</v>
+        <v>188.6420874846845</v>
       </c>
       <c r="D15" t="n">
-        <v>56.82489586657303</v>
+        <v>188.6420874846845</v>
       </c>
       <c r="E15" t="n">
-        <v>56.82489586657303</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F15" t="n">
-        <v>56.82489586657303</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G15" t="n">
         <v>15.07888360609898</v>
@@ -5376,31 +5376,31 @@
         <v>753.944180304949</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9441803049491</v>
+        <v>699.6340407762201</v>
       </c>
       <c r="S15" t="n">
-        <v>740.3586818094903</v>
+        <v>686.0485422807612</v>
       </c>
       <c r="T15" t="n">
-        <v>703.157375307101</v>
+        <v>495.6585977593095</v>
       </c>
       <c r="U15" t="n">
-        <v>643.4742360855782</v>
+        <v>435.9754585377866</v>
       </c>
       <c r="V15" t="n">
-        <v>580.3356935948093</v>
+        <v>372.8369160470177</v>
       </c>
       <c r="W15" t="n">
-        <v>490.8782999306976</v>
+        <v>283.3795223829059</v>
       </c>
       <c r="X15" t="n">
-        <v>451.311481152991</v>
+        <v>243.8127036051992</v>
       </c>
       <c r="Y15" t="n">
-        <v>405.6119636939156</v>
+        <v>198.1131861461238</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.5984783588262</v>
+        <v>15.59847835882614</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5984783588262</v>
+        <v>27.16621540761908</v>
       </c>
       <c r="D16" t="n">
-        <v>48.22800082166822</v>
+        <v>27.16621540761908</v>
       </c>
       <c r="E16" t="n">
-        <v>48.22800082166822</v>
+        <v>63.26718181856192</v>
       </c>
       <c r="F16" t="n">
-        <v>48.22800082166822</v>
+        <v>63.26718181856192</v>
       </c>
       <c r="G16" t="n">
-        <v>57.57455232779783</v>
+        <v>72.61373332469145</v>
       </c>
       <c r="H16" t="n">
-        <v>69.76850012035707</v>
+        <v>72.61373332469145</v>
       </c>
       <c r="I16" t="n">
-        <v>69.76850012035707</v>
+        <v>85.76881333543297</v>
       </c>
       <c r="J16" t="n">
-        <v>127.0896886629425</v>
+        <v>85.76881333543297</v>
       </c>
       <c r="K16" t="n">
-        <v>127.0896886629425</v>
+        <v>85.76881333543297</v>
       </c>
       <c r="L16" t="n">
-        <v>127.0896886629425</v>
+        <v>85.76881333543297</v>
       </c>
       <c r="M16" t="n">
-        <v>127.0896886629425</v>
+        <v>171.1033482782196</v>
       </c>
       <c r="N16" t="n">
-        <v>287.0908666912947</v>
+        <v>331.1045263065716</v>
       </c>
       <c r="O16" t="n">
-        <v>426.3432269232552</v>
+        <v>470.3568865385322</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7701116317056</v>
+        <v>470.3568865385322</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7701116317056</v>
+        <v>520.770111631706</v>
       </c>
       <c r="R16" t="n">
-        <v>495.2252151429517</v>
+        <v>495.225215142952</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3496948566331</v>
+        <v>437.3496948566333</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2689742461977</v>
+        <v>391.2689742461979</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6378685536061</v>
+        <v>279.6378685536063</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9941803365264</v>
+        <v>211.9941803365266</v>
       </c>
       <c r="W16" t="n">
-        <v>98.69221746804735</v>
+        <v>98.69221746804746</v>
       </c>
       <c r="X16" t="n">
-        <v>54.4723270047125</v>
+        <v>54.47232700471256</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07888360609898</v>
@@ -5489,58 +5489,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417489</v>
+        <v>463.3662739417498</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731521</v>
+        <v>410.0798406731532</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3523344135974</v>
+        <v>369.3523344135985</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879734</v>
+        <v>294.5776034879743</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7621275336851</v>
+        <v>187.7621275336861</v>
       </c>
       <c r="G17" t="n">
-        <v>65.14969672151398</v>
+        <v>65.14969672151392</v>
       </c>
       <c r="H17" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I17" t="n">
-        <v>15.07888360609898</v>
+        <v>70.95425539993046</v>
       </c>
       <c r="J17" t="n">
-        <v>53.72840378273472</v>
+        <v>70.95425539993046</v>
       </c>
       <c r="K17" t="n">
-        <v>240.3295884082096</v>
+        <v>70.95425539993046</v>
       </c>
       <c r="L17" t="n">
-        <v>287.040746747246</v>
+        <v>233.4945295919348</v>
       </c>
       <c r="M17" t="n">
-        <v>473.6419313727209</v>
+        <v>314.3456532052801</v>
       </c>
       <c r="N17" t="n">
-        <v>548.9588746763831</v>
+        <v>389.6625965089423</v>
       </c>
       <c r="O17" t="n">
-        <v>583.1691697531653</v>
+        <v>423.8728915857245</v>
       </c>
       <c r="P17" t="n">
-        <v>583.1691697531653</v>
+        <v>610.4740762111994</v>
       </c>
       <c r="Q17" t="n">
-        <v>583.1691697531653</v>
+        <v>610.4740762111994</v>
       </c>
       <c r="R17" t="n">
-        <v>684.7099941530148</v>
+        <v>610.4740762111994</v>
       </c>
       <c r="S17" t="n">
-        <v>753.9441803049491</v>
+        <v>679.7082623631337</v>
       </c>
       <c r="T17" t="n">
         <v>753.9441803049491</v>
@@ -5549,16 +5549,16 @@
         <v>753.9441803049491</v>
       </c>
       <c r="V17" t="n">
-        <v>730.2796801394097</v>
+        <v>730.2796801394098</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4266140985019</v>
+        <v>689.4266140985021</v>
       </c>
       <c r="X17" t="n">
-        <v>626.4662243515944</v>
+        <v>626.4662243515951</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.775679934239</v>
+        <v>540.7756799342399</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>142.0847875429703</v>
+        <v>51.60263082411251</v>
       </c>
       <c r="C18" t="n">
-        <v>142.0847875429703</v>
+        <v>51.60263082411251</v>
       </c>
       <c r="D18" t="n">
-        <v>142.0847875429703</v>
+        <v>51.60263082411251</v>
       </c>
       <c r="E18" t="n">
-        <v>142.0847875429703</v>
+        <v>51.60263082411251</v>
       </c>
       <c r="F18" t="n">
-        <v>142.0847875429703</v>
+        <v>51.60263082411251</v>
       </c>
       <c r="G18" t="n">
-        <v>142.0847875429703</v>
+        <v>51.60263082411251</v>
       </c>
       <c r="H18" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07888360609901</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J18" t="n">
-        <v>15.07888360609901</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K18" t="n">
-        <v>53.03690762936461</v>
+        <v>53.03690762936458</v>
       </c>
       <c r="L18" t="n">
         <v>170.3626975743616</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N18" t="n">
         <v>538.6322093831027</v>
@@ -5610,34 +5610,34 @@
         <v>670.3253369263739</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9441803049491</v>
+        <v>753.944180304949</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9441803049491</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9441803049491</v>
+        <v>610.9183727939512</v>
       </c>
       <c r="S18" t="n">
-        <v>563.5542357834972</v>
+        <v>420.5284282724994</v>
       </c>
       <c r="T18" t="n">
-        <v>511.0105849913572</v>
+        <v>420.5284282724994</v>
       </c>
       <c r="U18" t="n">
-        <v>511.0105849913572</v>
+        <v>230.1384837510476</v>
       </c>
       <c r="V18" t="n">
-        <v>511.0105849913572</v>
+        <v>230.1384837510476</v>
       </c>
       <c r="W18" t="n">
-        <v>320.6206404699054</v>
+        <v>230.1384837510476</v>
       </c>
       <c r="X18" t="n">
-        <v>320.6206404699054</v>
+        <v>230.1384837510476</v>
       </c>
       <c r="Y18" t="n">
-        <v>320.6206404699054</v>
+        <v>230.1384837510476</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417497</v>
+        <v>463.3662739417492</v>
       </c>
       <c r="C20" t="n">
-        <v>410.0798406731531</v>
+        <v>410.0798406731524</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3523344135984</v>
+        <v>369.3523344135976</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5776034879742</v>
+        <v>294.5776034879734</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336859</v>
+        <v>187.7621275336851</v>
       </c>
       <c r="G20" t="n">
-        <v>65.14969672151395</v>
+        <v>65.149696721514</v>
       </c>
       <c r="H20" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I20" t="n">
-        <v>15.07888360609898</v>
+        <v>70.9542553999304</v>
       </c>
       <c r="J20" t="n">
-        <v>15.07888360609898</v>
+        <v>70.9542553999304</v>
       </c>
       <c r="K20" t="n">
-        <v>184.4777914694854</v>
+        <v>70.9542553999304</v>
       </c>
       <c r="L20" t="n">
-        <v>231.1889498085218</v>
+        <v>228.5954411120871</v>
       </c>
       <c r="M20" t="n">
-        <v>417.7901344339967</v>
+        <v>309.4465647254324</v>
       </c>
       <c r="N20" t="n">
-        <v>493.1070777376588</v>
+        <v>384.7635080290946</v>
       </c>
       <c r="O20" t="n">
-        <v>679.7082623631337</v>
+        <v>418.9738031058768</v>
       </c>
       <c r="P20" t="n">
-        <v>679.7082623631337</v>
+        <v>418.9738031058768</v>
       </c>
       <c r="Q20" t="n">
-        <v>679.7082623631337</v>
+        <v>605.5749877313517</v>
       </c>
       <c r="R20" t="n">
-        <v>679.7082623631337</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="S20" t="n">
-        <v>679.7082623631337</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="T20" t="n">
-        <v>753.9441803049491</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="U20" t="n">
         <v>753.9441803049491</v>
       </c>
       <c r="V20" t="n">
-        <v>730.2796801394098</v>
+        <v>730.2796801394097</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4266140985021</v>
+        <v>689.4266140985019</v>
       </c>
       <c r="X20" t="n">
-        <v>626.4662243515951</v>
+        <v>626.4662243515947</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342397</v>
+        <v>540.7756799342394</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.07888360609898</v>
+        <v>204.4911578731353</v>
       </c>
       <c r="C21" t="n">
         <v>15.07888360609898</v>
@@ -5856,25 +5856,25 @@
         <v>753.9441803049491</v>
       </c>
       <c r="S21" t="n">
-        <v>563.5542357834972</v>
+        <v>573.4169553215222</v>
       </c>
       <c r="T21" t="n">
-        <v>563.5542357834972</v>
+        <v>573.4169553215222</v>
       </c>
       <c r="U21" t="n">
-        <v>373.1642912620454</v>
+        <v>573.4169553215222</v>
       </c>
       <c r="V21" t="n">
-        <v>373.1642912620454</v>
+        <v>573.4169553215222</v>
       </c>
       <c r="W21" t="n">
-        <v>182.7743467405936</v>
+        <v>573.4169553215222</v>
       </c>
       <c r="X21" t="n">
-        <v>15.07888360609898</v>
+        <v>383.0270108000703</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.07888360609898</v>
+        <v>383.0270108000703</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.366273941749</v>
+        <v>463.3662739417496</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731523</v>
+        <v>410.0798406731529</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3523344135975</v>
+        <v>369.3523344135982</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879733</v>
+        <v>294.5776034879739</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7621275336852</v>
+        <v>187.7621275336856</v>
       </c>
       <c r="G23" t="n">
         <v>65.14969672151398</v>
@@ -5984,55 +5984,55 @@
         <v>15.07888360609898</v>
       </c>
       <c r="I23" t="n">
-        <v>70.9542553999304</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J23" t="n">
-        <v>70.9542553999304</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K23" t="n">
-        <v>70.9542553999304</v>
+        <v>201.6800682315739</v>
       </c>
       <c r="L23" t="n">
-        <v>129.1156768888702</v>
+        <v>248.3912265706103</v>
       </c>
       <c r="M23" t="n">
-        <v>209.9668005022155</v>
+        <v>434.9924111960852</v>
       </c>
       <c r="N23" t="n">
-        <v>396.5679851276904</v>
+        <v>621.59359582156</v>
       </c>
       <c r="O23" t="n">
-        <v>583.1691697531653</v>
+        <v>655.8038908983423</v>
       </c>
       <c r="P23" t="n">
-        <v>583.1691697531653</v>
+        <v>707.1158121312014</v>
       </c>
       <c r="Q23" t="n">
-        <v>583.1691697531653</v>
+        <v>707.1158121312014</v>
       </c>
       <c r="R23" t="n">
-        <v>684.7099941530148</v>
+        <v>707.1158121312014</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9441803049491</v>
+        <v>707.1158121312014</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9441803049491</v>
+        <v>707.1158121312014</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9441803049491</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394094</v>
+        <v>730.2796801394101</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4266140985015</v>
+        <v>689.4266140985022</v>
       </c>
       <c r="X23" t="n">
-        <v>626.4662243515945</v>
+        <v>626.4662243515951</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342392</v>
+        <v>540.7756799342397</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.07888360609898</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="C24" t="n">
-        <v>15.07888360609898</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="D24" t="n">
-        <v>15.07888360609898</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="E24" t="n">
-        <v>15.07888360609898</v>
+        <v>175.5065998888549</v>
       </c>
       <c r="F24" t="n">
         <v>15.07888360609898</v>
@@ -6066,10 +6066,10 @@
         <v>15.07888360609898</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07888360609901</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K24" t="n">
-        <v>53.03690762936461</v>
+        <v>53.03690762936458</v>
       </c>
       <c r="L24" t="n">
         <v>170.3626975743616</v>
@@ -6096,22 +6096,22 @@
         <v>753.9441803049491</v>
       </c>
       <c r="T24" t="n">
-        <v>753.9441803049491</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="U24" t="n">
-        <v>753.9441803049491</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="V24" t="n">
-        <v>563.5542357834972</v>
+        <v>373.1642912620454</v>
       </c>
       <c r="W24" t="n">
         <v>373.1642912620454</v>
       </c>
       <c r="X24" t="n">
-        <v>182.7743467405936</v>
+        <v>365.8965444103067</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.07888360609898</v>
+        <v>175.5065998888549</v>
       </c>
     </row>
     <row r="25">
@@ -6203,37 +6203,37 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7789886073099</v>
+        <v>882.7789886073103</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617561</v>
+        <v>757.2394630617565</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501327</v>
+        <v>597.6527128501332</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098454</v>
+        <v>406.0252176098459</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116748</v>
+        <v>198.6007675116753</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71793511026078</v>
+        <v>63.71793511026087</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2499218476702</v>
+        <v>171.24992184767</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9353445940058</v>
+        <v>375.9353445940055</v>
       </c>
       <c r="L26" t="n">
-        <v>633.9996519916499</v>
+        <v>633.9996519916497</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2039246636031</v>
+        <v>926.2039246636032</v>
       </c>
       <c r="N26" t="n">
         <v>1212.874017025873</v>
@@ -6251,22 +6251,22 @@
         <v>1795.789199734232</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.617101019535</v>
+        <v>1781.617101019536</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.548289510105</v>
+        <v>1772.548289510106</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.5154439551</v>
+        <v>1735.515443955101</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.038924503562</v>
+        <v>1627.038924503563</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.373839176655</v>
+        <v>1501.373839176656</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.601430143749</v>
+        <v>1353.60143014375</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.098866440395</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>225.3280582617209</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C27" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D27" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="K27" t="n">
         <v>73.87380801795024</v>
@@ -6333,22 +6333,22 @@
         <v>793.0763328677681</v>
       </c>
       <c r="T27" t="n">
-        <v>791.5783248528414</v>
+        <v>586.2336513566762</v>
       </c>
       <c r="U27" t="n">
-        <v>767.5984841187812</v>
+        <v>562.253810622616</v>
       </c>
       <c r="V27" t="n">
-        <v>524.5187660224153</v>
+        <v>319.1740925262501</v>
       </c>
       <c r="W27" t="n">
-        <v>255.1201967527066</v>
+        <v>265.419997349601</v>
       </c>
       <c r="X27" t="n">
-        <v>251.2566764624627</v>
+        <v>261.556477059357</v>
       </c>
       <c r="Y27" t="n">
-        <v>241.2604574908499</v>
+        <v>35.91578399468465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F28" t="n">
-        <v>109.7313196570302</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G28" t="n">
-        <v>154.0706740107219</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H28" t="n">
-        <v>154.0706740107219</v>
+        <v>83.10253463480601</v>
       </c>
       <c r="I28" t="n">
-        <v>202.2185568690256</v>
+        <v>83.10253463480601</v>
       </c>
       <c r="J28" t="n">
-        <v>202.2185568690256</v>
+        <v>83.10253463480601</v>
       </c>
       <c r="K28" t="n">
-        <v>202.2185568690256</v>
+        <v>83.10253463480601</v>
       </c>
       <c r="L28" t="n">
-        <v>202.2185568690256</v>
+        <v>83.10253463480601</v>
       </c>
       <c r="M28" t="n">
-        <v>202.2185568690256</v>
+        <v>83.10253463480601</v>
       </c>
       <c r="N28" t="n">
-        <v>202.2185568690256</v>
+        <v>112.683019241708</v>
       </c>
       <c r="O28" t="n">
-        <v>202.2185568690256</v>
+        <v>112.683019241708</v>
       </c>
       <c r="P28" t="n">
-        <v>202.2185568690256</v>
+        <v>266.139026119299</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1390261192988</v>
+        <v>266.139026119299</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1390261192988</v>
+        <v>266.139026119299</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9668043204428</v>
+        <v>243.966804320443</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974701</v>
+        <v>233.5893821974702</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923412</v>
+        <v>157.6615749923413</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7211852627242</v>
+        <v>125.7211852627243</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170772</v>
+        <v>48.12252088170779</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583552</v>
+        <v>39.60592890583555</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.877441161907</v>
+        <v>1020.877441161906</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7789886073109</v>
+        <v>882.77898860731</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2394630617572</v>
+        <v>757.2394630617562</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6527128501339</v>
+        <v>597.6527128501328</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098465</v>
+        <v>406.0252176098455</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6007675116759</v>
+        <v>198.6007675116749</v>
       </c>
       <c r="H29" t="n">
-        <v>63.7179351102619</v>
+        <v>63.71793511026084</v>
       </c>
       <c r="I29" t="n">
         <v>35.91578399468464</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2499218476701</v>
+        <v>171.24992184767</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9353445940056</v>
+        <v>375.9353445940055</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916501</v>
+        <v>633.9996519916497</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2039246636032</v>
+        <v>926.2039246636027</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.874017025873</v>
+        <v>1212.874017025872</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.437461161263</v>
+        <v>1458.437461161262</v>
       </c>
       <c r="P29" t="n">
         <v>1654.84073296935</v>
@@ -6488,10 +6488,10 @@
         <v>1795.789199734232</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.617101019535</v>
+        <v>1781.617101019536</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.548289510105</v>
+        <v>1772.548289510106</v>
       </c>
       <c r="U29" t="n">
         <v>1735.515443955101</v>
@@ -6506,7 +6506,7 @@
         <v>1353.60143014375</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.098866440396</v>
+        <v>1183.098866440395</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>209.4789878732702</v>
+        <v>196.6959002336529</v>
       </c>
       <c r="C30" t="n">
-        <v>209.4789878732702</v>
+        <v>196.6959002336529</v>
       </c>
       <c r="D30" t="n">
-        <v>209.4789878732702</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="E30" t="n">
         <v>35.91578399468464</v>
@@ -6567,25 +6567,25 @@
         <v>793.0763328677681</v>
       </c>
       <c r="S30" t="n">
-        <v>793.0763328677681</v>
+        <v>711.4031544444467</v>
       </c>
       <c r="T30" t="n">
-        <v>791.5783248528414</v>
+        <v>709.90514642952</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8170145012014</v>
+        <v>470.2808316024001</v>
       </c>
       <c r="V30" t="n">
-        <v>708.3817704978951</v>
+        <v>442.8455875990938</v>
       </c>
       <c r="W30" t="n">
-        <v>438.9832012281865</v>
+        <v>389.0914924224447</v>
       </c>
       <c r="X30" t="n">
-        <v>219.4752068448828</v>
+        <v>385.2279721322007</v>
       </c>
       <c r="Y30" t="n">
-        <v>209.4789878732702</v>
+        <v>375.231753160588</v>
       </c>
     </row>
     <row r="31">
@@ -6616,52 +6616,52 @@
         <v>35.91578399468464</v>
       </c>
       <c r="I31" t="n">
-        <v>84.06366685298838</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J31" t="n">
-        <v>84.06366685298838</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="K31" t="n">
-        <v>84.06366685298838</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="L31" t="n">
-        <v>180.7329981785626</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="M31" t="n">
-        <v>180.7329981785626</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="N31" t="n">
-        <v>180.7329981785626</v>
+        <v>180.7329981785631</v>
       </c>
       <c r="O31" t="n">
-        <v>180.7329981785626</v>
+        <v>180.7329981785631</v>
       </c>
       <c r="P31" t="n">
-        <v>180.7329981785626</v>
+        <v>180.7329981785631</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1390261192986</v>
+        <v>266.139026119299</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1390261192986</v>
+        <v>266.139026119299</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9668043204426</v>
+        <v>243.966804320443</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5893821974699</v>
+        <v>233.5893821974702</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6615749923411</v>
+        <v>157.6615749923413</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7211852627241</v>
+        <v>125.7211852627242</v>
       </c>
       <c r="W31" t="n">
-        <v>48.12252088170766</v>
+        <v>48.12252088170778</v>
       </c>
       <c r="X31" t="n">
-        <v>39.60592890583549</v>
+        <v>39.60592890583555</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91578399468464</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.162565128078</v>
+        <v>1014.162565128079</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848166</v>
+        <v>876.9831877848173</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505967</v>
+        <v>752.3627374505975</v>
       </c>
       <c r="E32" t="n">
-        <v>593.6950624503072</v>
+        <v>593.6950624503081</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9866424213537</v>
+        <v>402.9866424213541</v>
       </c>
       <c r="G32" t="n">
-        <v>196.481267534517</v>
+        <v>196.4812675345174</v>
       </c>
       <c r="H32" t="n">
-        <v>62.51751034443695</v>
+        <v>62.51751034443692</v>
       </c>
       <c r="I32" t="n">
         <v>35.63443444019465</v>
@@ -6704,13 +6704,13 @@
         <v>377.4555662687723</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4206592810448</v>
+        <v>636.4206592810449</v>
       </c>
       <c r="M32" t="n">
-        <v>907.6325188659615</v>
+        <v>929.5257175676263</v>
       </c>
       <c r="N32" t="n">
-        <v>1195.20339684286</v>
+        <v>1217.096595544524</v>
       </c>
       <c r="O32" t="n">
         <v>1441.667626592878</v>
@@ -6734,13 +6734,13 @@
         <v>1724.205191864604</v>
       </c>
       <c r="V32" t="n">
-        <v>1616.647747624399</v>
+        <v>1616.6477476244</v>
       </c>
       <c r="W32" t="n">
         <v>1491.901737508827</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.048403687254</v>
+        <v>1345.048403687255</v>
       </c>
       <c r="Y32" t="n">
         <v>1175.464915195234</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>244.6554087816954</v>
+        <v>89.15643105809829</v>
       </c>
       <c r="C33" t="n">
-        <v>244.6554087816954</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="D33" t="n">
-        <v>83.87529254272712</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="E33" t="n">
-        <v>83.87529254272712</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="F33" t="n">
-        <v>83.87529254272712</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="G33" t="n">
-        <v>83.87529254272712</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="H33" t="n">
-        <v>83.87529254272712</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="I33" t="n">
         <v>35.63443444019465</v>
@@ -6804,25 +6804,25 @@
         <v>792.794983313278</v>
       </c>
       <c r="S33" t="n">
-        <v>792.794983313278</v>
+        <v>599.2683092122222</v>
       </c>
       <c r="T33" t="n">
-        <v>575.6525012052916</v>
+        <v>598.6893764086294</v>
       </c>
       <c r="U33" t="n">
-        <v>552.5917356825654</v>
+        <v>575.6286108859032</v>
       </c>
       <c r="V33" t="n">
-        <v>526.075566890593</v>
+        <v>549.1124420939309</v>
       </c>
       <c r="W33" t="n">
-        <v>473.2405469252778</v>
+        <v>279.7138728242222</v>
       </c>
       <c r="X33" t="n">
-        <v>470.2961018463677</v>
+        <v>276.7694277453122</v>
       </c>
       <c r="Y33" t="n">
-        <v>244.6554087816954</v>
+        <v>267.6922839850334</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>35.63443444019465</v>
       </c>
       <c r="C34" t="n">
-        <v>83.09575995117814</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="D34" t="n">
-        <v>83.09575995117814</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="E34" t="n">
-        <v>83.09575995117814</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="F34" t="n">
-        <v>83.09575995117814</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="G34" t="n">
-        <v>83.09575995117814</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="H34" t="n">
-        <v>83.09575995117814</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="I34" t="n">
-        <v>132.1444284241102</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="J34" t="n">
-        <v>225.3592054288861</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="K34" t="n">
-        <v>225.3592054288861</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="L34" t="n">
-        <v>225.3592054288861</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="M34" t="n">
-        <v>259.4241500854715</v>
+        <v>105.0673575932519</v>
       </c>
       <c r="N34" t="n">
-        <v>259.4241500854715</v>
+        <v>105.0673575932519</v>
       </c>
       <c r="O34" t="n">
-        <v>259.4241500854715</v>
+        <v>105.0673575932519</v>
       </c>
       <c r="P34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="R34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="S34" t="n">
-        <v>238.1710034979494</v>
+        <v>238.1710034979492</v>
       </c>
       <c r="T34" t="n">
-        <v>228.7126565863106</v>
+        <v>228.7126565863105</v>
       </c>
       <c r="U34" t="n">
-        <v>153.7039245925156</v>
+        <v>153.7039245925155</v>
       </c>
       <c r="V34" t="n">
-        <v>122.6826100742325</v>
+        <v>122.6826100742324</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090454993</v>
+        <v>46.00302090454987</v>
       </c>
       <c r="X34" t="n">
-        <v>38.40550414001163</v>
+        <v>38.4055041400116</v>
       </c>
       <c r="Y34" t="n">
         <v>35.63443444019465</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0203756379705</v>
+        <v>623.0203756379699</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0845948837513</v>
+        <v>544.0845948837507</v>
       </c>
       <c r="D35" t="n">
-        <v>477.707741138574</v>
+        <v>477.7077411385737</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2836627273272</v>
+        <v>377.2836627273268</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8188392874164</v>
+        <v>244.8188392874163</v>
       </c>
       <c r="G35" t="n">
         <v>96.55706098962315</v>
@@ -6932,55 +6932,55 @@
         <v>20.83690038858565</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83690038858565</v>
+        <v>51.57334671175848</v>
       </c>
       <c r="J35" t="n">
-        <v>214.1563728731201</v>
+        <v>51.57334671175848</v>
       </c>
       <c r="K35" t="n">
-        <v>214.1563728731201</v>
+        <v>51.57334671175848</v>
       </c>
       <c r="L35" t="n">
-        <v>260.8675312121566</v>
+        <v>130.6414816841245</v>
       </c>
       <c r="M35" t="n">
-        <v>518.7241735209041</v>
+        <v>388.498123992872</v>
       </c>
       <c r="N35" t="n">
-        <v>594.0411168245662</v>
+        <v>463.8150672965342</v>
       </c>
       <c r="O35" t="n">
-        <v>851.8977591333137</v>
+        <v>721.6717096052816</v>
       </c>
       <c r="P35" t="n">
-        <v>851.8977591333137</v>
+        <v>976.0603160449178</v>
       </c>
       <c r="Q35" t="n">
-        <v>997.7497587480071</v>
+        <v>976.0603160449178</v>
       </c>
       <c r="R35" t="n">
-        <v>997.7497587480071</v>
+        <v>976.0603160449178</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.845019429283</v>
+        <v>1020.155576726193</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.845019429283</v>
+        <v>1020.155576726193</v>
       </c>
       <c r="U35" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5311717781209</v>
+        <v>992.5311717781206</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0287582515905</v>
+        <v>926.02875825159</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4190210190609</v>
+        <v>837.4190210190604</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0791291160831</v>
+        <v>726.0791291160825</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>308.6229205644252</v>
+        <v>181.2646166713416</v>
       </c>
       <c r="C36" t="n">
-        <v>308.6229205644252</v>
+        <v>181.2646166713416</v>
       </c>
       <c r="D36" t="n">
-        <v>147.842804325457</v>
+        <v>181.2646166713416</v>
       </c>
       <c r="E36" t="n">
-        <v>147.842804325457</v>
+        <v>181.2646166713416</v>
       </c>
       <c r="F36" t="n">
-        <v>147.842804325457</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G36" t="n">
-        <v>147.842804325457</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H36" t="n">
         <v>20.83690038858565</v>
@@ -7035,31 +7035,31 @@
         <v>777.9974492616691</v>
       </c>
       <c r="Q36" t="n">
-        <v>777.9974492616691</v>
+        <v>771.0543285965952</v>
       </c>
       <c r="R36" t="n">
-        <v>777.9974492616691</v>
+        <v>771.0543285965952</v>
       </c>
       <c r="S36" t="n">
-        <v>777.9974492616691</v>
+        <v>617.9150931626316</v>
       </c>
       <c r="T36" t="n">
-        <v>777.9974492616691</v>
+        <v>400.7726110546452</v>
       </c>
       <c r="U36" t="n">
-        <v>777.9974492616691</v>
+        <v>400.7726110546452</v>
       </c>
       <c r="V36" t="n">
-        <v>534.9177311653032</v>
+        <v>400.7726110546452</v>
       </c>
       <c r="W36" t="n">
-        <v>534.9177311653032</v>
+        <v>400.7726110546452</v>
       </c>
       <c r="X36" t="n">
-        <v>315.4097367819995</v>
+        <v>181.2646166713416</v>
       </c>
       <c r="Y36" t="n">
-        <v>315.4097367819995</v>
+        <v>181.2646166713416</v>
       </c>
     </row>
     <row r="37">
@@ -7081,52 +7081,52 @@
         <v>20.83690038858565</v>
       </c>
       <c r="F37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="G37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="H37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="I37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="J37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="K37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="L37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="M37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="N37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="O37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="P37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="R37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="S37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="T37" t="n">
+        <v>37.602035793338</v>
+      </c>
+      <c r="U37" t="n">
         <v>20.83690038858565</v>
-      </c>
-      <c r="G37" t="n">
-        <v>20.83690038858565</v>
-      </c>
-      <c r="H37" t="n">
-        <v>20.83690038858565</v>
-      </c>
-      <c r="I37" t="n">
-        <v>20.83690038858565</v>
-      </c>
-      <c r="J37" t="n">
-        <v>20.83690038858565</v>
-      </c>
-      <c r="K37" t="n">
-        <v>20.83690038858565</v>
-      </c>
-      <c r="L37" t="n">
-        <v>20.83690038858565</v>
-      </c>
-      <c r="M37" t="n">
-        <v>20.83690038858565</v>
-      </c>
-      <c r="N37" t="n">
-        <v>20.83690038858565</v>
-      </c>
-      <c r="O37" t="n">
-        <v>20.83690038858565</v>
-      </c>
-      <c r="P37" t="n">
-        <v>20.83690038858565</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>20.83690038858565</v>
-      </c>
-      <c r="R37" t="n">
-        <v>20.83690038858565</v>
-      </c>
-      <c r="S37" t="n">
-        <v>20.83690038858565</v>
-      </c>
-      <c r="T37" t="n">
-        <v>56.03802837397788</v>
-      </c>
-      <c r="U37" t="n">
-        <v>39.27289296922554</v>
       </c>
       <c r="V37" t="n">
         <v>39.27289296922554</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0203756379711</v>
+        <v>623.0203756379705</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0845948837519</v>
+        <v>544.0845948837513</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7077411385748</v>
+        <v>477.707741138574</v>
       </c>
       <c r="E38" t="n">
-        <v>377.283662727328</v>
+        <v>377.2836627273272</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8188392874172</v>
+        <v>244.8188392874164</v>
       </c>
       <c r="G38" t="n">
         <v>96.55706098962315</v>
@@ -7169,55 +7169,55 @@
         <v>20.83690038858565</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83690038858565</v>
+        <v>51.57334671175848</v>
       </c>
       <c r="J38" t="n">
-        <v>214.1563728731201</v>
+        <v>158.7041715883199</v>
       </c>
       <c r="K38" t="n">
-        <v>214.1563728731201</v>
+        <v>158.7041715883199</v>
       </c>
       <c r="L38" t="n">
-        <v>260.8675312121566</v>
+        <v>416.5608138970674</v>
       </c>
       <c r="M38" t="n">
-        <v>518.7241735209041</v>
+        <v>497.4119375104127</v>
       </c>
       <c r="N38" t="n">
-        <v>712.23579139819</v>
+        <v>572.7288808140748</v>
       </c>
       <c r="O38" t="n">
-        <v>746.4460864749723</v>
+        <v>606.9391758908571</v>
       </c>
       <c r="P38" t="n">
-        <v>746.4460864749723</v>
+        <v>861.3277823304933</v>
       </c>
       <c r="Q38" t="n">
-        <v>926.9633235737617</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9633235737617</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0585842550373</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.155576726194</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="U38" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5311717781216</v>
+        <v>992.5311717781209</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0287582515912</v>
+        <v>926.0287582515905</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4190210190616</v>
+        <v>837.4190210190609</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0791291160838</v>
+        <v>726.0791291160831</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>371.0292908945902</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="C39" t="n">
-        <v>181.6170166275539</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83690038858565</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83690038858565</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83690038858565</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="G39" t="n">
         <v>20.83690038858565</v>
@@ -7275,28 +7275,28 @@
         <v>777.9974492616691</v>
       </c>
       <c r="R39" t="n">
-        <v>641.9147624157453</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="S39" t="n">
-        <v>641.9147624157453</v>
+        <v>584.4707751606134</v>
       </c>
       <c r="T39" t="n">
-        <v>641.9147624157453</v>
+        <v>584.4707751606134</v>
       </c>
       <c r="U39" t="n">
-        <v>641.9147624157453</v>
+        <v>584.4707751606134</v>
       </c>
       <c r="V39" t="n">
-        <v>398.8350443193793</v>
+        <v>434.1761857398378</v>
       </c>
       <c r="W39" t="n">
-        <v>398.8350443193793</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="X39" t="n">
-        <v>398.8350443193793</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="Y39" t="n">
-        <v>398.8350443193793</v>
+        <v>171.0840091162815</v>
       </c>
     </row>
     <row r="40">
@@ -7324,40 +7324,40 @@
         <v>20.83690038858565</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="T40" t="n">
         <v>56.03802837397788</v>
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.411998154369</v>
+        <v>818.4119981543697</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1156967153495</v>
+        <v>708.1156967153501</v>
       </c>
       <c r="D41" t="n">
-        <v>610.378322285372</v>
+        <v>610.3783222853726</v>
       </c>
       <c r="E41" t="n">
-        <v>478.5937231893247</v>
+        <v>478.5937231893256</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7683790646136</v>
+        <v>314.7683790646148</v>
       </c>
       <c r="G41" t="n">
         <v>135.1460800820201</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J41" t="n">
         <v>190.6484249575439</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5827360122556</v>
+        <v>422.5827360122557</v>
       </c>
       <c r="L41" t="n">
-        <v>469.293894351292</v>
+        <v>707.8959317182762</v>
       </c>
       <c r="M41" t="n">
-        <v>550.1450179646373</v>
+        <v>1027.349092698606</v>
       </c>
       <c r="N41" t="n">
-        <v>679.6398433611605</v>
+        <v>1341.268073369252</v>
       </c>
       <c r="O41" t="n">
-        <v>952.4521758049267</v>
+        <v>1375.478368446034</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.10433592139</v>
+        <v>1384.909393661128</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.885126697007</v>
+        <v>1384.909393661128</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.550579303025</v>
+        <v>1384.909393661128</v>
       </c>
       <c r="S41" t="n">
         <v>1384.909393661128</v>
@@ -7442,19 +7442,19 @@
         <v>1403.269939809112</v>
       </c>
       <c r="U41" t="n">
-        <v>1394.039245369683</v>
+        <v>1394.039245369684</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.364877033721</v>
+        <v>1313.364877033722</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.50194282239</v>
+        <v>1215.501942822391</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.53168490506</v>
+        <v>1095.531684905061</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.831272317282</v>
+        <v>952.8312723172827</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>155.0713027330535</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C42" t="n">
-        <v>155.0713027330535</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D42" t="n">
-        <v>155.0713027330535</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E42" t="n">
-        <v>155.0713027330535</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F42" t="n">
-        <v>155.0713027330535</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G42" t="n">
-        <v>155.0713027330535</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K42" t="n">
         <v>66.02342281944783</v>
@@ -7512,28 +7512,28 @@
         <v>785.2259476692657</v>
       </c>
       <c r="R42" t="n">
-        <v>649.1432608233418</v>
+        <v>785.2259476692657</v>
       </c>
       <c r="S42" t="n">
-        <v>649.1432608233418</v>
+        <v>785.2259476692657</v>
       </c>
       <c r="T42" t="n">
-        <v>432.0007787153555</v>
+        <v>785.2259476692657</v>
       </c>
       <c r="U42" t="n">
-        <v>432.0007787153555</v>
+        <v>545.6016328421458</v>
       </c>
       <c r="V42" t="n">
-        <v>432.0007787153555</v>
+        <v>475.999820992826</v>
       </c>
       <c r="W42" t="n">
-        <v>406.0488346542827</v>
+        <v>206.6012517231173</v>
       </c>
       <c r="X42" t="n">
-        <v>333.6071556599886</v>
+        <v>206.6012517231173</v>
       </c>
       <c r="Y42" t="n">
-        <v>333.6071556599886</v>
+        <v>206.6012517231173</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G43" t="n">
-        <v>55.69016781671839</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H43" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I43" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J43" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K43" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L43" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M43" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="N43" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="O43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="P43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="R43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="S43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="T43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00015067566331</v>
+        <v>82.00015067566326</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86191206162248</v>
+        <v>77.86191206162246</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="44">
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4119981543695</v>
+        <v>818.4119981543706</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1156967153499</v>
+        <v>708.1156967153511</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3783222853724</v>
+        <v>610.3783222853733</v>
       </c>
       <c r="E44" t="n">
-        <v>478.5937231893248</v>
+        <v>478.5937231893258</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7683790646137</v>
+        <v>314.7683790646147</v>
       </c>
       <c r="G44" t="n">
         <v>135.1460800820201</v>
       </c>
       <c r="H44" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I44" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J44" t="n">
-        <v>162.6961485048679</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="K44" t="n">
-        <v>162.6961485048679</v>
+        <v>422.5827360122557</v>
       </c>
       <c r="L44" t="n">
-        <v>448.0093442108883</v>
+        <v>469.2938943512921</v>
       </c>
       <c r="M44" t="n">
-        <v>767.4625051912176</v>
+        <v>788.7470553316214</v>
       </c>
       <c r="N44" t="n">
-        <v>1081.381485861864</v>
+        <v>864.0639986352835</v>
       </c>
       <c r="O44" t="n">
-        <v>1115.591780938646</v>
+        <v>1136.87633107905</v>
       </c>
       <c r="P44" t="n">
-        <v>1339.243941055109</v>
+        <v>1240.130334675393</v>
       </c>
       <c r="Q44" t="n">
-        <v>1339.243941055109</v>
+        <v>1389.911125451009</v>
       </c>
       <c r="R44" t="n">
-        <v>1384.909393661128</v>
+        <v>1389.911125451009</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.909393661128</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="T44" t="n">
         <v>1403.269939809112</v>
@@ -7682,16 +7682,16 @@
         <v>1394.039245369684</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.364877033721</v>
+        <v>1313.364877033722</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.501942822391</v>
+        <v>1215.501942822392</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.531684905061</v>
+        <v>1095.531684905062</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8312723172825</v>
+        <v>952.8312723172836</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J45" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K45" t="n">
         <v>66.02342281944783</v>
@@ -7752,25 +7752,25 @@
         <v>785.2259476692657</v>
       </c>
       <c r="S45" t="n">
-        <v>693.1423031008123</v>
+        <v>591.6992735682099</v>
       </c>
       <c r="T45" t="n">
-        <v>475.999820992826</v>
+        <v>591.6992735682099</v>
       </c>
       <c r="U45" t="n">
-        <v>475.999820992826</v>
+        <v>591.6992735682099</v>
       </c>
       <c r="V45" t="n">
-        <v>475.999820992826</v>
+        <v>348.619555471844</v>
       </c>
       <c r="W45" t="n">
-        <v>206.6012517231173</v>
+        <v>322.6676114107712</v>
       </c>
       <c r="X45" t="n">
-        <v>206.6012517231173</v>
+        <v>322.6676114107712</v>
       </c>
       <c r="Y45" t="n">
-        <v>206.6012517231173</v>
+        <v>97.02691834609885</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.45958721749736</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C46" t="n">
-        <v>41.45958721749736</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D46" t="n">
-        <v>41.45958721749736</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E46" t="n">
-        <v>41.45958721749736</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F46" t="n">
-        <v>41.45958721749736</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G46" t="n">
-        <v>113.0478298795653</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H46" t="n">
-        <v>113.0478298795653</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I46" t="n">
-        <v>113.0478298795653</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J46" t="n">
-        <v>113.0478298795653</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K46" t="n">
-        <v>113.0478298795653</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L46" t="n">
-        <v>113.0478298795653</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M46" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="N46" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="O46" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="P46" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="R46" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="S46" t="n">
-        <v>113.0478298795653</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="T46" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00015067566331</v>
+        <v>82.00015067566326</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86191206162248</v>
+        <v>77.86191206162246</v>
       </c>
       <c r="W46" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06539879618223</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
   </sheetData>
@@ -8535,16 +8535,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5532127625713</v>
+        <v>169.2041989925474</v>
       </c>
       <c r="M9" t="n">
         <v>176.9203908159872</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
-        <v>174.1352738833231</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
         <v>166.9656464766077</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.459431452054986</v>
+        <v>7.459431452055071</v>
       </c>
       <c r="C11" t="n">
         <v>172.0637335316378</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6303957926862</v>
+        <v>159.6303957926863</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3371482120951</v>
+        <v>193.3371482120952</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0574857904724</v>
+        <v>36.57144071423522</v>
       </c>
       <c r="G11" t="n">
-        <v>52.21042602353964</v>
+        <v>67.83286796555524</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.87039510700851</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.74367530294984</v>
       </c>
       <c r="S11" t="n">
-        <v>49.37664323013689</v>
+        <v>49.37664323013698</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692364</v>
+        <v>44.32438889692372</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00878260204223</v>
+        <v>72.00878260204232</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7380197596109</v>
+        <v>142.738019759611</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7546999762258</v>
+        <v>159.7546999762259</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>98.1335899794679</v>
+        <v>204.1438035689089</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9454765282923</v>
+        <v>23.08187339407053</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.0637335316378</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6303957926862</v>
+        <v>159.6303957926863</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3371482120951</v>
+        <v>193.3371482120952</v>
       </c>
       <c r="F14" t="n">
-        <v>36.57144071423517</v>
+        <v>36.57144071423522</v>
       </c>
       <c r="G14" t="n">
-        <v>240.6964710997769</v>
+        <v>52.21042602353972</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8802695799879</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.87039510700851</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.74367530294984</v>
       </c>
       <c r="S14" t="n">
-        <v>49.37664323013692</v>
+        <v>49.37664323013698</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.32438889692373</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00878260204232</v>
       </c>
       <c r="V14" t="n">
         <v>142.738019759611</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>159.7546999762259</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.918880330072</v>
+        <v>204.1438035689089</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>154338.0991558804</v>
       </c>
       <c r="C2" t="n">
-        <v>154338.0991558804</v>
+        <v>154338.0991558805</v>
       </c>
       <c r="D2" t="n">
         <v>154431.6546945414</v>
@@ -26326,7 +26326,7 @@
         <v>132951.4878092535</v>
       </c>
       <c r="G2" t="n">
-        <v>154650.7460502437</v>
+        <v>154650.7460502438</v>
       </c>
       <c r="H2" t="n">
         <v>154650.7460502438</v>
@@ -26338,22 +26338,22 @@
         <v>154650.7460502438</v>
       </c>
       <c r="K2" t="n">
-        <v>154650.7460502437</v>
+        <v>154650.7460502438</v>
       </c>
       <c r="L2" t="n">
         <v>154650.746050244</v>
       </c>
       <c r="M2" t="n">
+        <v>154650.7460502437</v>
+      </c>
+      <c r="N2" t="n">
         <v>154650.7460502439</v>
-      </c>
-      <c r="N2" t="n">
-        <v>154650.7460502438</v>
       </c>
       <c r="O2" t="n">
         <v>154650.7460502438</v>
       </c>
       <c r="P2" t="n">
-        <v>154650.7460502438</v>
+        <v>154650.7460502439</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95448.13167658164</v>
+        <v>95448.13167658173</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96176.03924395808</v>
+        <v>96176.03924395824</v>
       </c>
       <c r="M3" t="n">
-        <v>46128.92849852178</v>
+        <v>46128.92849852176</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134129</v>
+        <v>72249.07655134125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>382300.9666476649</v>
       </c>
       <c r="E4" t="n">
-        <v>267204.7942598716</v>
+        <v>267204.7942598715</v>
       </c>
       <c r="F4" t="n">
         <v>267204.7942598715</v>
@@ -26454,7 +26454,7 @@
         <v>337685.3766657655</v>
       </c>
       <c r="O4" t="n">
-        <v>338072.4059932269</v>
+        <v>338072.405993227</v>
       </c>
       <c r="P4" t="n">
         <v>338072.405993227</v>
@@ -26476,16 +26476,16 @@
         <v>33841.42566141239</v>
       </c>
       <c r="E5" t="n">
-        <v>28641.35152034391</v>
+        <v>28641.3515203439</v>
       </c>
       <c r="F5" t="n">
-        <v>28641.35152034391</v>
+        <v>28641.3515203439</v>
       </c>
       <c r="G5" t="n">
+        <v>38671.63774774209</v>
+      </c>
+      <c r="H5" t="n">
         <v>38671.63774774208</v>
-      </c>
-      <c r="H5" t="n">
-        <v>38671.63774774209</v>
       </c>
       <c r="I5" t="n">
         <v>38671.63774774208</v>
@@ -26497,7 +26497,7 @@
         <v>47448.92101020608</v>
       </c>
       <c r="L5" t="n">
-        <v>47311.58842539589</v>
+        <v>47311.5884253959</v>
       </c>
       <c r="M5" t="n">
         <v>40912.97865860084</v>
@@ -26506,10 +26506,10 @@
         <v>40912.97865860084</v>
       </c>
       <c r="O5" t="n">
-        <v>43796.55431105827</v>
+        <v>43796.55431105828</v>
       </c>
       <c r="P5" t="n">
-        <v>43796.55431105827</v>
+        <v>43796.55431105828</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-261927.1083292348</v>
+        <v>-261931.5747134399</v>
       </c>
       <c r="C6" t="n">
-        <v>-261927.1083292348</v>
+        <v>-261931.5747134399</v>
       </c>
       <c r="D6" t="n">
-        <v>-262803.1827659261</v>
+        <v>-262806.3126424361</v>
       </c>
       <c r="E6" t="n">
-        <v>-441904.8012383417</v>
+        <v>-442214.7906417843</v>
       </c>
       <c r="F6" t="n">
-        <v>-162894.6579709619</v>
+        <v>-163204.6473744045</v>
       </c>
       <c r="G6" t="n">
-        <v>-317288.8839387556</v>
+        <v>-317288.8839387557</v>
       </c>
       <c r="H6" t="n">
-        <v>-221840.752262174</v>
+        <v>-221840.7522621739</v>
       </c>
       <c r="I6" t="n">
         <v>-221840.7522621739</v>
       </c>
       <c r="J6" t="n">
-        <v>-374798.6400619473</v>
+        <v>-374798.6400619472</v>
       </c>
       <c r="K6" t="n">
-        <v>-231308.2236909369</v>
+        <v>-231308.2236909368</v>
       </c>
       <c r="L6" t="n">
-        <v>-327330.6720426644</v>
+        <v>-327330.6720426646</v>
       </c>
       <c r="M6" t="n">
-        <v>-270076.5377726443</v>
+        <v>-270076.5377726444</v>
       </c>
       <c r="N6" t="n">
-        <v>-223947.6092741226</v>
+        <v>-223947.6092741225</v>
       </c>
       <c r="O6" t="n">
-        <v>-299467.2908053826</v>
+        <v>-299467.2908053827</v>
       </c>
       <c r="P6" t="n">
         <v>-227218.2142540414</v>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="F2" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="G2" t="n">
+        <v>297.4519284452682</v>
+      </c>
+      <c r="H2" t="n">
         <v>297.4519284452681</v>
-      </c>
-      <c r="H2" t="n">
-        <v>297.4519284452682</v>
       </c>
       <c r="I2" t="n">
         <v>297.4519284452681</v>
@@ -26710,7 +26710,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="K2" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="L2" t="n">
         <v>214.3979138113496</v>
@@ -26811,7 +26811,7 @@
         <v>188.4860450762373</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9472999335579</v>
+        <v>448.947299933558</v>
       </c>
       <c r="K4" t="n">
         <v>448.9472999335579</v>
@@ -26826,10 +26826,10 @@
         <v>260.4612548573207</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8174849522779</v>
+        <v>350.8174849522781</v>
       </c>
       <c r="P4" t="n">
-        <v>350.8174849522779</v>
+        <v>350.8174849522781</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.3101645957271</v>
+        <v>119.3101645957272</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.17786475640202</v>
+        <v>94.1778647564019</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.2200490549476</v>
+        <v>120.2200490549478</v>
       </c>
       <c r="M2" t="n">
-        <v>57.66116062315223</v>
+        <v>57.6611606231522</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13094927844969</v>
+        <v>63.13094927844958</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.3562300949572</v>
+        <v>90.35623009495737</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.3101645957271</v>
+        <v>119.3101645957272</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.17786475640202</v>
+        <v>94.1778647564019</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.4551793114576</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
         <v>220.4301160555486</v>
@@ -27919,7 +27919,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y8" t="n">
-        <v>382.2855674184499</v>
+        <v>382.1079190306973</v>
       </c>
     </row>
     <row r="9">
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.7504943976657</v>
+        <v>173.2336249665409</v>
       </c>
       <c r="C9" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>156.0746564816438</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>155.3065696888035</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
         <v>148.9622183950918</v>
@@ -27950,7 +27950,7 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>111.3389500165922</v>
       </c>
       <c r="J9" t="n">
         <v>73.03491363274843</v>
@@ -27977,10 +27977,10 @@
         <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>144.7140833671753</v>
+        <v>145.1332942033654</v>
       </c>
       <c r="S9" t="n">
-        <v>192.1160050168152</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
@@ -27989,7 +27989,7 @@
         <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
-        <v>240.6489209154022</v>
+        <v>237.1320514842774</v>
       </c>
       <c r="W9" t="n">
         <v>266.7045835770116</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="J11" t="n">
-        <v>76.78688000567912</v>
+        <v>178.141763849541</v>
       </c>
       <c r="K11" t="n">
-        <v>178.1417638495411</v>
+        <v>6.735077083103278</v>
       </c>
       <c r="L11" t="n">
-        <v>141.3030568549884</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N11" t="n">
-        <v>31.09359719220924</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1417638495411</v>
+        <v>159.8417859093932</v>
       </c>
       <c r="Q11" t="n">
         <v>89.71843090037106</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
     </row>
     <row r="12">
@@ -28169,13 +28169,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>87.82851130244615</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28184,7 +28184,7 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H12" t="n">
-        <v>69.62694961149617</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I12" t="n">
         <v>107.364552236389</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.873689458423158</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1417638495411</v>
+        <v>26.4850122106692</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="W12" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="X12" t="n">
-        <v>28.82686936323333</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
     </row>
     <row r="13">
@@ -28245,13 +28245,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.1417638495411</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>178.141763849541</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -28263,58 +28263,58 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H13" t="n">
-        <v>178.1417638495411</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I13" t="n">
         <v>164.8538042427314</v>
       </c>
       <c r="J13" t="n">
-        <v>178.1417638495411</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K13" t="n">
-        <v>67.0332105846294</v>
+        <v>126.884168812926</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1417638495411</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N13" t="n">
-        <v>145.9905434216128</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O13" t="n">
-        <v>37.48281412028791</v>
+        <v>178.141763849541</v>
       </c>
       <c r="P13" t="n">
-        <v>58.48196179900678</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Q13" t="n">
         <v>127.2193142604766</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1417638495411</v>
+        <v>178.141763849541</v>
       </c>
     </row>
     <row r="14">
@@ -28348,7 +28348,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="J14" t="n">
-        <v>76.78688000567912</v>
+        <v>178.141763849541</v>
       </c>
       <c r="K14" t="n">
         <v>6.735077083103278</v>
@@ -28360,16 +28360,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>112.4083245674877</v>
+        <v>88.51826550644772</v>
       </c>
       <c r="O14" t="n">
         <v>153.9301914633259</v>
       </c>
       <c r="P14" t="n">
-        <v>167.1832556831928</v>
+        <v>178.141763849541</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.141763849541</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R14" t="n">
         <v>178.141763849541</v>
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>107.4160855025496</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H15" t="n">
         <v>125.7358448975026</v>
@@ -28451,13 +28451,13 @@
         <v>6.873689458423158</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7218599774646</v>
+        <v>80.95482184402303</v>
       </c>
       <c r="S15" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="T15" t="n">
-        <v>178.141763849541</v>
+        <v>26.4850122106692</v>
       </c>
       <c r="U15" t="n">
         <v>178.141763849541</v>
@@ -28485,13 +28485,13 @@
         <v>178.141763849541</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D16" t="n">
+        <v>145.1826502507107</v>
+      </c>
+      <c r="E16" t="n">
         <v>178.141763849541</v>
-      </c>
-      <c r="E16" t="n">
-        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28500,13 +28500,13 @@
         <v>178.141763849541</v>
       </c>
       <c r="H16" t="n">
+        <v>165.824644867158</v>
+      </c>
+      <c r="I16" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="I16" t="n">
-        <v>164.8538042427314</v>
-      </c>
       <c r="J16" t="n">
-        <v>178.141763849541</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K16" t="n">
         <v>67.0332105846294</v>
@@ -28515,7 +28515,7 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M16" t="n">
-        <v>25.22122397250158</v>
+        <v>111.4177239147103</v>
       </c>
       <c r="N16" t="n">
         <v>178.141763849541</v>
@@ -28524,10 +28524,10 @@
         <v>178.141763849541</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8626534237042</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2193142604766</v>
+        <v>178.141763849541</v>
       </c>
       <c r="R16" t="n">
         <v>178.141763849541</v>
@@ -28561,40 +28561,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="I17" t="n">
-        <v>241.0121589565495</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="J17" t="n">
-        <v>115.8267993760182</v>
+        <v>76.78688000567912</v>
       </c>
       <c r="K17" t="n">
-        <v>195.2211221593406</v>
+        <v>6.735077083103278</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>116.9991069221899</v>
       </c>
       <c r="M17" t="n">
-        <v>106.8182434465955</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.10088611163704</v>
+        <v>203.5869311878743</v>
       </c>
       <c r="Q17" t="n">
         <v>89.71843090037106</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4519284452681</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4661527464647</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="U17" t="n">
         <v>250.1505464515833</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.4519284452682</v>
       </c>
     </row>
     <row r="18">
@@ -28658,7 +28658,7 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>89.5773351516692</v>
       </c>
       <c r="I18" t="n">
         <v>107.364552236389</v>
@@ -28685,25 +28685,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.873689458423158</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.105362283807921</v>
+        <v>3.105362283807925</v>
       </c>
       <c r="T18" t="n">
-        <v>162.9528430026878</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280716788486</v>
+        <v>48.74202660261134</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>78.21853850077432</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
@@ -28798,76 +28798,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="I20" t="n">
-        <v>241.0121589565495</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="J20" t="n">
         <v>76.78688000567912</v>
       </c>
       <c r="K20" t="n">
-        <v>177.8450850259178</v>
+        <v>6.735077083103278</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>112.0505327001216</v>
       </c>
       <c r="M20" t="n">
-        <v>106.8182434465955</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>153.9301914633259</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>15.10088611163704</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71843090037106</v>
+        <v>278.2044759766084</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8854391524908</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="S20" t="n">
         <v>227.518407079678</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4519284452682</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1505464515833</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
     </row>
     <row r="21">
@@ -28877,10 +28877,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28928,22 +28928,22 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S21" t="n">
-        <v>3.105362283807921</v>
+        <v>12.86945462645258</v>
       </c>
       <c r="T21" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U21" t="n">
-        <v>48.74202660261133</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>78.21853850077432</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>51.29440593632091</v>
+        <v>28.82686936323333</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29056,43 +29056,43 @@
         <v>297.4519284452681</v>
       </c>
       <c r="I23" t="n">
-        <v>297.4519284452681</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J23" t="n">
         <v>76.78688000567912</v>
       </c>
       <c r="K23" t="n">
-        <v>6.735077083103278</v>
+        <v>195.2211221593406</v>
       </c>
       <c r="L23" t="n">
-        <v>11.56592237363979</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N23" t="n">
         <v>112.4083245674877</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9301914633259</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.10088611163704</v>
+        <v>66.93110957917155</v>
       </c>
       <c r="Q23" t="n">
         <v>89.71843090037106</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4519284452681</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4519284452681</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T23" t="n">
         <v>222.4661527464647</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505464515833</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="V23" t="n">
         <v>297.4519284452681</v>
@@ -29126,7 +29126,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446376404189</v>
@@ -29168,7 +29168,7 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9710572869065</v>
+        <v>26.4850122106692</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280716788486</v>
@@ -29177,13 +29177,13 @@
         <v>52.16287583916497</v>
       </c>
       <c r="W24" t="n">
-        <v>78.21853850077432</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.82686936323333</v>
+        <v>210.1178450562492</v>
       </c>
       <c r="Y24" t="n">
-        <v>57.36577763087593</v>
+        <v>34.89824105778834</v>
       </c>
     </row>
     <row r="25">
@@ -29305,7 +29305,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="M26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521295</v>
       </c>
       <c r="N26" t="n">
         <v>213.488029352129</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>160.977419160828</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29405,7 +29405,7 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T27" t="n">
-        <v>213.488029352129</v>
+        <v>10.19680259092553</v>
       </c>
       <c r="U27" t="n">
         <v>213.488029352129</v>
@@ -29414,13 +29414,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X27" t="n">
         <v>213.488029352129</v>
       </c>
       <c r="Y27" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29442,16 +29442,16 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
+        <v>138.9268822184467</v>
+      </c>
+      <c r="G28" t="n">
+        <v>168.7008027322384</v>
+      </c>
+      <c r="H28" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="G28" t="n">
-        <v>213.488029352129</v>
-      </c>
-      <c r="H28" t="n">
-        <v>165.824644867158</v>
-      </c>
       <c r="I28" t="n">
-        <v>213.488029352129</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J28" t="n">
         <v>120.241573402485</v>
@@ -29466,16 +29466,16 @@
         <v>25.22122397250158</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52441230575097</v>
+        <v>46.40368968646002</v>
       </c>
       <c r="O28" t="n">
         <v>37.48281412028791</v>
       </c>
       <c r="P28" t="n">
-        <v>58.48196179900678</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Q28" t="n">
-        <v>191.7854448163081</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R28" t="n">
         <v>203.4312113734075</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
     </row>
     <row r="30">
@@ -29588,16 +29588,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29639,25 +29639,25 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S30" t="n">
-        <v>191.5914073600452</v>
+        <v>110.734960720957</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="U30" t="n">
-        <v>182.0243744307249</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
     </row>
     <row r="31">
@@ -29688,7 +29688,7 @@
         <v>165.824644867158</v>
       </c>
       <c r="I31" t="n">
-        <v>213.4880293521291</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J31" t="n">
         <v>120.241573402485</v>
@@ -29697,13 +29697,13 @@
         <v>67.0332105846294</v>
       </c>
       <c r="L31" t="n">
-        <v>129.8017393238897</v>
+        <v>32.15595010613791</v>
       </c>
       <c r="M31" t="n">
         <v>25.22122397250158</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52441230575097</v>
+        <v>162.8044266329009</v>
       </c>
       <c r="O31" t="n">
         <v>37.48281412028791</v>
@@ -29712,31 +29712,31 @@
         <v>58.48196179900678</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="R31" t="n">
         <v>203.4312113734075</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4880293521291</v>
+        <v>213.488029352129</v>
       </c>
     </row>
     <row r="32">
@@ -29779,13 +29779,13 @@
         <v>214.3979138113496</v>
       </c>
       <c r="M32" t="n">
-        <v>192.283571688456</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="N32" t="n">
         <v>214.3979138113496</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3979138113496</v>
+        <v>192.283571688456</v>
       </c>
       <c r="P32" t="n">
         <v>214.3979138113496</v>
@@ -29825,13 +29825,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>134.5313748726413</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29846,7 +29846,7 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I33" t="n">
-        <v>59.60610271488186</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J33" t="n">
         <v>52.47830382393113</v>
@@ -29876,10 +29876,10 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="U33" t="n">
         <v>214.3979138113496</v>
@@ -29888,13 +29888,13 @@
         <v>214.3979138113496</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3979138113496</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>214.3979138113496</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>214.3979138113496</v>
       </c>
     </row>
     <row r="34">
@@ -29907,7 +29907,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>214.3979138113496</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29925,10 +29925,10 @@
         <v>165.824644867158</v>
       </c>
       <c r="I34" t="n">
-        <v>214.3979138113496</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J34" t="n">
-        <v>214.3979138113496</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K34" t="n">
         <v>67.0332105846294</v>
@@ -29937,7 +29937,7 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M34" t="n">
-        <v>59.6302589791535</v>
+        <v>95.35548978367049</v>
       </c>
       <c r="N34" t="n">
         <v>16.52441230575097</v>
@@ -29946,7 +29946,7 @@
         <v>37.48281412028791</v>
       </c>
       <c r="P34" t="n">
-        <v>58.48196179900678</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2193142604766</v>
@@ -30004,16 +30004,16 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I35" t="n">
-        <v>241.0121589565495</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0590744345018</v>
+        <v>76.78688000567912</v>
       </c>
       <c r="K35" t="n">
         <v>6.735077083103278</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>32.68381478114105</v>
       </c>
       <c r="M35" t="n">
         <v>178.793453227679</v>
@@ -30025,10 +30025,10 @@
         <v>225.9054012444093</v>
       </c>
       <c r="P35" t="n">
-        <v>15.10088611163704</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="Q35" t="n">
-        <v>237.0436830364251</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R35" t="n">
         <v>194.8854391524908</v>
@@ -30040,7 +30040,7 @@
         <v>222.4661527464647</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505464515833</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="V35" t="n">
         <v>272.0590744345018</v>
@@ -30062,25 +30062,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>170.0315463422672</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446376404189</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I36" t="n">
         <v>107.364552236389</v>
@@ -30107,22 +30107,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.873689458423158</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5914073600452</v>
+        <v>39.98356428042129</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -30153,7 +30153,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>155.8613624252672</v>
       </c>
       <c r="G37" t="n">
         <v>168.7008027322384</v>
@@ -30195,13 +30195,13 @@
         <v>235.4385289329965</v>
       </c>
       <c r="T37" t="n">
-        <v>259.3183721886116</v>
+        <v>223.761677253872</v>
       </c>
       <c r="U37" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>263.731229912369</v>
       </c>
       <c r="W37" t="n">
         <v>272.0590744345018</v>
@@ -30241,28 +30241,28 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I38" t="n">
-        <v>241.0121589565495</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0590744345018</v>
+        <v>184.9998344264483</v>
       </c>
       <c r="K38" t="n">
         <v>6.735077083103278</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.2782666360718</v>
       </c>
       <c r="M38" t="n">
-        <v>178.793453227679</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>119.3885601753776</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.10088611163704</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0590744345018</v>
@@ -30271,13 +30271,13 @@
         <v>194.8854391524908</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0590744345018</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0590744345018</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0590744345018</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V38" t="n">
         <v>272.0590744345018</v>
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>149.2227985071245</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30314,7 +30314,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>125.7358448975026</v>
@@ -30347,10 +30347,10 @@
         <v>6.873689458423158</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9710572869065</v>
@@ -30359,10 +30359,10 @@
         <v>237.2280716788486</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>91.85727738883446</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243328719690908</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30396,7 +30396,7 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H40" t="n">
-        <v>201.3813398018976</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I40" t="n">
         <v>164.8538042427314</v>
@@ -30432,7 +30432,7 @@
         <v>235.4385289329965</v>
       </c>
       <c r="T40" t="n">
-        <v>223.761677253872</v>
+        <v>259.3183721886116</v>
       </c>
       <c r="U40" t="n">
         <v>272.0590744345018</v>
@@ -30487,28 +30487,28 @@
         <v>241.0121589565495</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="N41" t="n">
-        <v>54.72513342713241</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="O41" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>241.0121589565495</v>
+        <v>24.62717420769181</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.0121589565495</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R41" t="n">
-        <v>241.0121589565495</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S41" t="n">
-        <v>241.0121589565495</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T41" t="n">
         <v>241.0121589565495</v>
@@ -30554,7 +30554,7 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I42" t="n">
         <v>107.364552236389</v>
@@ -30584,25 +30584,25 @@
         <v>6.873689458423158</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S42" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280716788486</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>171.7431271845757</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>145.5956522351195</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30630,10 +30630,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>196.6046098236891</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H43" t="n">
-        <v>241.0121589565495</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I43" t="n">
         <v>164.8538042427314</v>
@@ -30654,7 +30654,7 @@
         <v>16.52441230575097</v>
       </c>
       <c r="O43" t="n">
-        <v>37.48281412028791</v>
+        <v>140.57413530113</v>
       </c>
       <c r="P43" t="n">
         <v>58.48196179900678</v>
@@ -30718,37 +30718,37 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J44" t="n">
-        <v>212.7775362770788</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="K44" t="n">
-        <v>6.735077083103278</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="L44" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
       <c r="P44" t="n">
+        <v>119.3978594412764</v>
+      </c>
+      <c r="Q44" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="Q44" t="n">
-        <v>89.71843090037106</v>
-      </c>
       <c r="R44" t="n">
+        <v>194.8854391524908</v>
+      </c>
+      <c r="S44" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="S44" t="n">
-        <v>227.518407079678</v>
-      </c>
       <c r="T44" t="n">
-        <v>241.0121589565495</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U44" t="n">
         <v>241.0121589565495</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>108.4785900432483</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30824,25 +30824,25 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S45" t="n">
-        <v>100.4285992372764</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>191.1464039188218</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30867,7 +30867,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>241.0121589565495</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H46" t="n">
         <v>165.824644867158</v>
@@ -30885,7 +30885,7 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M46" t="n">
-        <v>25.22122397250158</v>
+        <v>128.3125451533437</v>
       </c>
       <c r="N46" t="n">
         <v>16.52441230575097</v>
@@ -30906,7 +30906,7 @@
         <v>235.4385289329965</v>
       </c>
       <c r="T46" t="n">
-        <v>241.0121589565495</v>
+        <v>223.761677253872</v>
       </c>
       <c r="U46" t="n">
         <v>241.0121589565495</v>
@@ -31847,7 +31847,7 @@
         <v>47.24269850914538</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13000086604038</v>
+        <v>55.13000086604035</v>
       </c>
       <c r="N12" t="n">
         <v>38.10907524328127</v>
@@ -32792,7 +32792,7 @@
         <v>35.13452037190598</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914541</v>
       </c>
       <c r="M24" t="n">
         <v>55.13000086604035</v>
@@ -35255,16 +35255,16 @@
         <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
-        <v>3.516869431124803</v>
+        <v>0.1678556611008975</v>
       </c>
       <c r="M9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1678556611008989</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>3.516869431124803</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>101.3548838438619</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4066867664378</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>47.18298822124891</v>
+      </c>
+      <c r="M11" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="M11" t="n">
-        <v>81.66780162964173</v>
-      </c>
       <c r="N11" t="n">
-        <v>107.1713177009589</v>
+        <v>76.07772050874961</v>
       </c>
       <c r="O11" t="n">
-        <v>34.55585361291136</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="P11" t="n">
-        <v>163.040877737904</v>
+        <v>144.7408997977562</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35541,13 +35541,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5248431845729726</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.68458287756872</v>
+        <v>11.68458287756863</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.95911359883027</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35559,31 +35559,31 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.31711898238311</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.90019044705602</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>59.85095822829663</v>
       </c>
       <c r="L13" t="n">
-        <v>145.9858137434032</v>
+        <v>145.9858137434031</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9205398770395</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4661311158618</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.6589497292531</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>119.6598020505342</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>101.3548838438619</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35656,16 +35656,16 @@
         <v>81.66780162964173</v>
       </c>
       <c r="N14" t="n">
-        <v>188.4860450762373</v>
+        <v>164.5959860151973</v>
       </c>
       <c r="O14" t="n">
         <v>188.4860450762373</v>
       </c>
       <c r="P14" t="n">
-        <v>152.0823695715558</v>
+        <v>163.0408777379039</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.42333294916997</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35778,31 +35778,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5248431845729442</v>
+        <v>0.5248431845728874</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>11.68458287756863</v>
       </c>
       <c r="D16" t="n">
-        <v>32.95911359883033</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.46562263731599</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.440961117302626</v>
+        <v>9.440961117302569</v>
       </c>
       <c r="H16" t="n">
-        <v>12.31711898238308</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.28795960680961</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90019044705599</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35811,19 +35811,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>86.19649994220867</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6173515437901</v>
+        <v>161.61735154379</v>
       </c>
       <c r="O16" t="n">
         <v>140.6589497292531</v>
       </c>
       <c r="P16" t="n">
-        <v>95.38069162469739</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.92244958906439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,19 +35878,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>56.43976948871866</v>
       </c>
       <c r="J17" t="n">
-        <v>39.03991937033913</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.18298822124891</v>
+        <v>164.1820951434388</v>
       </c>
       <c r="M17" t="n">
-        <v>188.4860450762373</v>
+        <v>81.66780162964173</v>
       </c>
       <c r="N17" t="n">
         <v>76.07772050874961</v>
@@ -35899,19 +35899,19 @@
         <v>34.55585361291136</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93352136559014</v>
+        <v>69.9335213655902</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>74.98577569880344</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.4397694887186</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>171.1100079428145</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.18298822124891</v>
+        <v>159.2335209213705</v>
       </c>
       <c r="M20" t="n">
-        <v>188.4860450762373</v>
+        <v>81.66780162964173</v>
       </c>
       <c r="N20" t="n">
         <v>76.07772050874961</v>
       </c>
       <c r="O20" t="n">
+        <v>34.55585361291136</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5664892927773</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98577569880344</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.30138199368479</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.4397694887186</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="L23" t="n">
-        <v>58.7489105948887</v>
+        <v>47.18298822124891</v>
       </c>
       <c r="M23" t="n">
-        <v>81.66780162964173</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="N23" t="n">
         <v>188.4860450762373</v>
       </c>
       <c r="O23" t="n">
-        <v>188.4860450762373</v>
+        <v>34.55585361291136</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>51.83022346753451</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.93352136559014</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.30138199368479</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>136.7011493464499</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7529522690258</v>
+        <v>206.7529522690257</v>
       </c>
       <c r="L26" t="n">
-        <v>260.671017573378</v>
+        <v>260.6710175733779</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1558309817708</v>
+        <v>295.1558309817712</v>
       </c>
       <c r="N26" t="n">
-        <v>289.5657498608787</v>
+        <v>289.5657498608786</v>
       </c>
       <c r="O26" t="n">
         <v>248.0438829650404</v>
@@ -36616,7 +36616,7 @@
         <v>123.769598451758</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60259019963823</v>
+        <v>18.6025901996382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36738,16 +36738,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>74.5611471336824</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.78722661989064</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.66338448497106</v>
       </c>
       <c r="I28" t="n">
-        <v>48.63422510939768</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36762,16 +36762,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>29.87927738070905</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0060675531223</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.56613055583151</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>136.7011493464499</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7529522690258</v>
+        <v>206.7529522690257</v>
       </c>
       <c r="L29" t="n">
-        <v>260.671017573378</v>
+        <v>260.6710175733779</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1558309817708</v>
+        <v>295.1558309817707</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5657498608787</v>
+        <v>289.5657498608786</v>
       </c>
       <c r="O29" t="n">
         <v>248.0438829650404</v>
@@ -36853,7 +36853,7 @@
         <v>123.769598451758</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60259019963826</v>
+        <v>18.6025901996382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.63422510939771</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36993,13 +36993,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>97.64578921775178</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>146.28001432715</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.2687150916525</v>
+        <v>86.26871509165244</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>137.6110338056705</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6628367282463</v>
+        <v>207.6628367282464</v>
       </c>
       <c r="L32" t="n">
         <v>261.5809020325985</v>
       </c>
       <c r="M32" t="n">
-        <v>273.9513733180977</v>
+        <v>296.0657154409914</v>
       </c>
       <c r="N32" t="n">
         <v>290.4756343200992</v>
       </c>
       <c r="O32" t="n">
-        <v>248.953767424261</v>
+        <v>226.8394253013674</v>
       </c>
       <c r="P32" t="n">
         <v>199.2970276997126</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6794829109785</v>
+        <v>124.6794829109786</v>
       </c>
       <c r="R32" t="n">
-        <v>19.51247465885879</v>
+        <v>19.51247465885882</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.94073283937726</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37221,10 +37221,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>49.54410956861825</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>94.15634040886457</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>34.40903500665192</v>
+        <v>70.1342658111689</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.9159520123429</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,16 +37300,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.04691547795235</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2721944288227</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.18298822124891</v>
+        <v>79.86680300238996</v>
       </c>
       <c r="M35" t="n">
         <v>260.4612548573207</v>
@@ -37321,10 +37321,10 @@
         <v>260.4612548573207</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>256.9581883228648</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.325252136054</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37336,7 +37336,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90852798291854</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>16.93448020682055</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37491,13 +37491,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>35.55669493473962</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>18.62221472791908</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -37537,28 +37537,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.04691547795235</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2721944288227</v>
+        <v>108.2129544207691</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.18298822124891</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="M38" t="n">
-        <v>260.4612548573207</v>
+        <v>81.66780162964173</v>
       </c>
       <c r="N38" t="n">
-        <v>195.4662806841272</v>
+        <v>76.07772050874961</v>
       </c>
       <c r="O38" t="n">
         <v>34.55585361291136</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>256.9581883228648</v>
       </c>
       <c r="Q38" t="n">
         <v>182.3406435341308</v>
@@ -37567,13 +37567,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54066735482388</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59292168803713</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.90852798291854</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37692,43 +37692,43 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>35.55669493473962</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.2252789508703</v>
+        <v>164.2252789508704</v>
       </c>
       <c r="K41" t="n">
         <v>234.2770818734462</v>
       </c>
       <c r="L41" t="n">
-        <v>47.18298822124891</v>
+        <v>288.1951471777984</v>
       </c>
       <c r="M41" t="n">
-        <v>81.66780162964173</v>
+        <v>322.6799605861912</v>
       </c>
       <c r="N41" t="n">
-        <v>130.802853935882</v>
+        <v>317.0898794652991</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5680125694608</v>
+        <v>34.55585361291136</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9112728449124</v>
+        <v>9.52628809605477</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2937280561784</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12671980405867</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49375187687152</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54600621008477</v>
+        <v>18.5460062100848</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37926,10 +37926,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.90380709145066</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>75.18751408939153</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>103.0913211808421</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>135.9906562713997</v>
+        <v>164.2252789508704</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>234.2770818734462</v>
       </c>
       <c r="L44" t="n">
-        <v>288.1951471777984</v>
+        <v>47.18298822124891</v>
       </c>
       <c r="M44" t="n">
         <v>322.6799605861912</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0898794652991</v>
+        <v>76.07772050874961</v>
       </c>
       <c r="O44" t="n">
-        <v>34.55585361291136</v>
+        <v>275.5680125694608</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9112728449124</v>
+        <v>104.2969733296393</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.2937280561785</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12671980405867</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.49375187687155</v>
       </c>
       <c r="T44" t="n">
-        <v>18.54600621008477</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13.52948325385366</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>72.31135622431107</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>103.0913211808421</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.25048170267745</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
